--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H2">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>0.1271194771176667</v>
+        <v>0.4021350676244445</v>
       </c>
       <c r="R2">
-        <v>1.144075294059</v>
+        <v>3.61921560862</v>
       </c>
       <c r="S2">
-        <v>0.034573207163093</v>
+        <v>0.08366438592553176</v>
       </c>
       <c r="T2">
-        <v>0.034573207163093</v>
+        <v>0.08366438592553177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H3">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>0.02387343955466666</v>
+        <v>0.05662065655111111</v>
       </c>
       <c r="R3">
-        <v>0.214860955992</v>
+        <v>0.50958590896</v>
       </c>
       <c r="S3">
-        <v>0.00649295757136465</v>
+        <v>0.0117799536584389</v>
       </c>
       <c r="T3">
-        <v>0.006492957571364651</v>
+        <v>0.0117799536584389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H4">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>0.007070547336333333</v>
+        <v>0.01209298593777778</v>
       </c>
       <c r="R4">
-        <v>0.06363492602700001</v>
+        <v>0.10883687344</v>
       </c>
       <c r="S4">
-        <v>0.00192300584739846</v>
+        <v>0.00251595129086118</v>
       </c>
       <c r="T4">
-        <v>0.00192300584739846</v>
+        <v>0.00251595129086118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H5">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>0.0005164882036666666</v>
+        <v>0.002371272926666667</v>
       </c>
       <c r="R5">
-        <v>0.004648393833</v>
+        <v>0.02134145634</v>
       </c>
       <c r="S5">
-        <v>0.0001404714215913005</v>
+        <v>0.000493344423910534</v>
       </c>
       <c r="T5">
-        <v>0.0001404714215913005</v>
+        <v>0.0004933444239105341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.757262</v>
       </c>
       <c r="I6">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J6">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>2.664164807312666</v>
+        <v>3.553538535672667</v>
       </c>
       <c r="R6">
-        <v>23.977483265814</v>
+        <v>31.981846821054</v>
       </c>
       <c r="S6">
-        <v>0.7245838630580834</v>
+        <v>0.7393153280713657</v>
       </c>
       <c r="T6">
-        <v>0.7245838630580835</v>
+        <v>0.7393153280713659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.757262</v>
       </c>
       <c r="I7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>0.5003385707146666</v>
@@ -883,10 +883,10 @@
         <v>4.503047136431999</v>
       </c>
       <c r="S7">
-        <v>0.1360791394775172</v>
+        <v>0.1040956699473783</v>
       </c>
       <c r="T7">
-        <v>0.1360791394775173</v>
+        <v>0.1040956699473783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.757262</v>
       </c>
       <c r="I8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>0.1481842421713333</v>
+        <v>0.1068618357386667</v>
       </c>
       <c r="R8">
-        <v>1.333658179542</v>
+        <v>0.9617565216480001</v>
       </c>
       <c r="S8">
-        <v>0.04030227797549241</v>
+        <v>0.02223265411486119</v>
       </c>
       <c r="T8">
-        <v>0.04030227797549241</v>
+        <v>0.0222326541148612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>1.757262</v>
       </c>
       <c r="I9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>0.01082453866866667</v>
+        <v>0.020954177842</v>
       </c>
       <c r="R9">
-        <v>0.09742084801799999</v>
+        <v>0.188587600578</v>
       </c>
       <c r="S9">
-        <v>0.00294399431402879</v>
+        <v>0.004359526345418247</v>
       </c>
       <c r="T9">
-        <v>0.00294399431402879</v>
+        <v>0.004359526345418249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H10">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I10">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J10">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>0.15609647768</v>
+        <v>0.1098864506422222</v>
       </c>
       <c r="R10">
-        <v>1.40486829912</v>
+        <v>0.98897805578</v>
       </c>
       <c r="S10">
-        <v>0.0424542012178379</v>
+        <v>0.02286192663780245</v>
       </c>
       <c r="T10">
-        <v>0.0424542012178379</v>
+        <v>0.02286192663780245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H11">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I11">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J11">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>0.02931541183999999</v>
+        <v>0.01547202291555555</v>
       </c>
       <c r="R11">
-        <v>0.26383870656</v>
+        <v>0.13924820624</v>
       </c>
       <c r="S11">
-        <v>0.007973033162160892</v>
+        <v>0.003218961489487929</v>
       </c>
       <c r="T11">
-        <v>0.007973033162160893</v>
+        <v>0.00321896148948793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H12">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>0.008682285039999998</v>
+        <v>0.003304499928888888</v>
       </c>
       <c r="R12">
-        <v>0.07814056536</v>
+        <v>0.02974049936</v>
       </c>
       <c r="S12">
-        <v>0.002361356781377335</v>
+        <v>0.0006875027312953659</v>
       </c>
       <c r="T12">
-        <v>0.002361356781377335</v>
+        <v>0.0006875027312953661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H13">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>0.0006342221599999998</v>
+        <v>0.0006479682733333332</v>
       </c>
       <c r="R13">
-        <v>0.005707999439999999</v>
+        <v>0.00583171446</v>
       </c>
       <c r="S13">
-        <v>0.0001724920100545076</v>
+        <v>0.0001348100975324269</v>
       </c>
       <c r="T13">
-        <v>0.0001724920100545076</v>
+        <v>0.0001348100975324269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.003124</v>
+      </c>
+      <c r="H14">
+        <v>0.009372</v>
+      </c>
+      <c r="I14">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J14">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.066605666666667</v>
+      </c>
+      <c r="N14">
+        <v>18.199817</v>
+      </c>
+      <c r="O14">
+        <v>0.8497846287916651</v>
+      </c>
+      <c r="P14">
+        <v>0.8497846287916652</v>
+      </c>
+      <c r="Q14">
+        <v>0.01895207610266667</v>
+      </c>
+      <c r="R14">
+        <v>0.170568684924</v>
+      </c>
+      <c r="S14">
+        <v>0.003942988156965119</v>
+      </c>
+      <c r="T14">
+        <v>0.00394298815696512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.003124</v>
+      </c>
+      <c r="H15">
+        <v>0.009372</v>
+      </c>
+      <c r="I15">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J15">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N15">
+        <v>2.562536</v>
+      </c>
+      <c r="O15">
+        <v>0.1196497582104962</v>
+      </c>
+      <c r="P15">
+        <v>0.1196497582104962</v>
+      </c>
+      <c r="Q15">
+        <v>0.002668454154666666</v>
+      </c>
+      <c r="R15">
+        <v>0.024016087392</v>
+      </c>
+      <c r="S15">
+        <v>0.0005551731151910355</v>
+      </c>
+      <c r="T15">
+        <v>0.0005551731151910358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.003124</v>
+      </c>
+      <c r="H16">
+        <v>0.009372</v>
+      </c>
+      <c r="I16">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J16">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1824346666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.547304</v>
+      </c>
+      <c r="O16">
+        <v>0.02555468148257719</v>
+      </c>
+      <c r="P16">
+        <v>0.02555468148257719</v>
+      </c>
+      <c r="Q16">
+        <v>0.0005699258986666667</v>
+      </c>
+      <c r="R16">
+        <v>0.005129333088</v>
+      </c>
+      <c r="S16">
+        <v>0.0001185733455594437</v>
+      </c>
+      <c r="T16">
+        <v>0.0001185733455594437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.003124</v>
+      </c>
+      <c r="H17">
+        <v>0.009372</v>
+      </c>
+      <c r="I17">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J17">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.035773</v>
+      </c>
+      <c r="N17">
+        <v>0.107319</v>
+      </c>
+      <c r="O17">
+        <v>0.005010931515261538</v>
+      </c>
+      <c r="P17">
+        <v>0.005010931515261539</v>
+      </c>
+      <c r="Q17">
+        <v>0.000111754852</v>
+      </c>
+      <c r="R17">
+        <v>0.001005793668</v>
+      </c>
+      <c r="S17">
+        <v>2.32506484003295E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.325064840032951E-05</v>
       </c>
     </row>
   </sheetData>
